--- a/medicine/Psychotrope/Condomois_(IGP)/Condomois_(IGP).xlsx
+++ b/medicine/Psychotrope/Condomois_(IGP)/Condomois_(IGP).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le condomois, appelé ''vin de pays des côtes du Condomois jusqu'en 2009, est un vin français d'indication géographique protégée (le nouveau nom des vins de pays) de zone produit dans la zone Ténarèze (le Condomois). Depuis 2009, ces vins ont été intégrés à l'IGP Côtes-de-gascogne.
@@ -513,7 +525,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignerons du Syndicat de défense des côtes du Condomois doivent répondre à un cahier de production bien précis, chaque parcelle est identifiée et répertoriée.
 </t>
@@ -544,7 +558,9 @@
           <t>Règles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Seulement des vins rouge, rosé et blanc. 
 Seulement du vin provenant de la zone définie. 
@@ -580,7 +596,9 @@
           <t>Zone de production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le Gers principalement autour de la ville de Condom. Sur des terroirs argilo-calcaire, la région Côtes du Condomois s’étale de part et d’autre de la Baïse.
 </t>
